--- a/data/Data Dictionary.xlsx
+++ b/data/Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewbauer/Desktop/Fairfield Work/Fall 2025/DATA 6560/Semester Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152E0C25-FC40-CC46-A2F7-D2E2BA321B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDE7ACB5-3A88-FA48-9FFD-A568B6A95128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{959C006F-10B9-C041-BB2A-12B3C66B2ADF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200" xr2:uid="{959C006F-10B9-C041-BB2A-12B3C66B2ADF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Rk</t>
   </si>
@@ -56,18 +56,6 @@
     <t>VORP</t>
   </si>
   <si>
-    <t>3P</t>
-  </si>
-  <si>
-    <t>3P%</t>
-  </si>
-  <si>
-    <t>3PA</t>
-  </si>
-  <si>
-    <t>PTS</t>
-  </si>
-  <si>
     <t>Column ID</t>
   </si>
   <si>
@@ -89,9 +77,6 @@
     <t>Value over Replacement Player</t>
   </si>
   <si>
-    <t>% of FG that are 3P shots</t>
-  </si>
-  <si>
     <t>3P/Game</t>
   </si>
   <si>
@@ -101,12 +86,6 @@
     <t>3Pt attempts per game</t>
   </si>
   <si>
-    <t xml:space="preserve">3pt % </t>
-  </si>
-  <si>
-    <t>Points per game</t>
-  </si>
-  <si>
     <t>Data Dictionary</t>
   </si>
   <si>
@@ -140,19 +119,43 @@
     <t>Metric being analyzed</t>
   </si>
   <si>
-    <t>Distingueshes shot selection</t>
-  </si>
-  <si>
     <t>Determines 3pt value</t>
   </si>
   <si>
-    <t>Determines 3pt selection</t>
-  </si>
-  <si>
-    <t>Determines 3pt efficiency</t>
-  </si>
-  <si>
-    <t>Large contributior to WS</t>
+    <t>Updated 12/17/2025</t>
+  </si>
+  <si>
+    <t>2PT</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>TRB</t>
+  </si>
+  <si>
+    <t>AST</t>
+  </si>
+  <si>
+    <t>Assists per game</t>
+  </si>
+  <si>
+    <t>Total rebound per game</t>
+  </si>
+  <si>
+    <t>2Pts per game</t>
+  </si>
+  <si>
+    <t>points from 2pt range</t>
+  </si>
+  <si>
+    <t>scoring component</t>
+  </si>
+  <si>
+    <t>heavily impacts WS</t>
+  </si>
+  <si>
+    <t>Can impact WS</t>
   </si>
 </sst>
 </file>
@@ -417,6 +420,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,9 +432,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2209E0FA-36D4-5947-BEB1-DACA7FBEC86E}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,57 +778,60 @@
     <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="15" t="s">
+    <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="F1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -833,131 +839,131 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
